--- a/VanEck/VanEck-KostenBepaling.xlsx
+++ b/VanEck/VanEck-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsen/KeuzeWelkIndexFonds/OnderzoekPerFonds/VanEck/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/VanEck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{F2C7825C-7BCF-4FD5-BFFB-5E0393C98FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5078A00-5EB0-4801-8D12-4A4638DE144F}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{F2C7825C-7BCF-4FD5-BFFB-5E0393C98FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE015A9-A38F-49A0-9841-BCE5E9AEBC5B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30945" yWindow="5310" windowWidth="17220" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGET" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Gemiddelde</t>
   </si>
@@ -130,21 +130,12 @@
     <t>Transactiekosten %?</t>
   </si>
   <si>
-    <t>Wel hele lage transactiekosten</t>
-  </si>
-  <si>
-    <t>Overige kosten eerst waren toch transactiekosten</t>
-  </si>
-  <si>
     <t>Solactive Global Equity Index (gross)</t>
   </si>
   <si>
     <t>Vs gross</t>
   </si>
   <si>
-    <t>2014-2019</t>
-  </si>
-  <si>
     <t>Gemiddeld</t>
   </si>
   <si>
@@ -157,18 +148,9 @@
     <t>Gat met kosten benadering</t>
   </si>
   <si>
-    <t>Schatting tracking diff toekomst</t>
-  </si>
-  <si>
-    <t>Alle kosten inc drag</t>
-  </si>
-  <si>
     <t>TER en transactiekosten</t>
   </si>
   <si>
-    <t>Kan omdat maar weinig posities zijn, maar blijft wel erg laag</t>
-  </si>
-  <si>
     <t>Houden dividend in cash totdat wordt uitgekeerd. Zorgt voor drag in opgaande markt</t>
   </si>
   <si>
@@ -178,13 +160,40 @@
     <t>Komt door cash/tax drag, waarvan cash drag van ongeinvesteerd dividend grootste component is</t>
   </si>
   <si>
-    <t>0,13% lijkt wat veel voor hiervoor, maar volgens VanEck is dit wel zo</t>
-  </si>
-  <si>
     <t>2014-2020</t>
   </si>
   <si>
     <t>Men keert wel ieder kwartaal dividend uit, dat verzacht dit wat</t>
+  </si>
+  <si>
+    <t>0,11% lijkt wat veel voor hiervoor, maar volgens VanEck is dit wel zo</t>
+  </si>
+  <si>
+    <t>In jaarverslag vermeldde transactiekosten op de winst-verlies rekening zijn 'harde' transactiekosten.</t>
+  </si>
+  <si>
+    <t>Wat er in het jaarverslag bij transactiekosten staat zijn andere kosten, maar die moeten volgens IFRS regels daar onder staan.</t>
+  </si>
+  <si>
+    <t>Die heeft men niet, men betaald alleen spread.</t>
+  </si>
+  <si>
+    <t>Spread kosten staan niet op de winst-verliesrekening natuurlijk</t>
+  </si>
+  <si>
+    <t>Omdat het maar 1x per jaar rebalance is over 250 zeer liquide aandelen is het wel heel beperkt.</t>
+  </si>
+  <si>
+    <t>Indicatie verleden is rond de 1-1,5bps (0,01-0,015%).</t>
+  </si>
+  <si>
+    <t>Achterblijven bij de bruto index komt voor ongeveer voor 2/3 door de TER en 1/3 door de cash drag op dividend. De rest is marginaal.</t>
+  </si>
+  <si>
+    <t>transactiekosten nu zijn toch eigenlijk overige kosten? Ja: lees verder onder.</t>
+  </si>
+  <si>
+    <t>Tracking diff check:</t>
   </si>
 </sst>
 </file>
@@ -607,9 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -704,7 +711,9 @@
       <c r="H5" s="13">
         <v>1001210520</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="13">
+        <v>252600669</v>
+      </c>
       <c r="J5" s="10"/>
       <c r="L5" s="1" t="s">
         <v>3</v>
@@ -732,13 +741,15 @@
       <c r="H6" s="14">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="14">
+        <v>1.6000000000000001E-3</v>
+      </c>
       <c r="J6" s="20">
-        <f>AVERAGE(C6:H6)</f>
-        <v>1.8333333333333335E-3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
+        <f>AVERAGE(C6:I6)</f>
+        <v>1.8000000000000002E-3</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -763,10 +774,12 @@
       <c r="H7" s="13">
         <v>911873727</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13">
+        <v>593438494</v>
+      </c>
       <c r="J7" s="17"/>
-      <c r="L7" t="s">
-        <v>32</v>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -779,6 +792,9 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="17"/>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
@@ -790,9 +806,6 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="17"/>
-      <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -816,10 +829,12 @@
       <c r="H10" s="13">
         <v>1509286</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="13">
+        <v>1014920</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="L10" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -841,7 +856,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="18"/>
       <c r="L11" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -864,15 +879,20 @@
       <c r="H12" s="19">
         <v>3944</v>
       </c>
-      <c r="I12" s="19"/>
+      <c r="I12" s="19">
+        <v>6</v>
+      </c>
       <c r="J12" s="18"/>
+      <c r="L12" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="19">
-        <f t="shared" ref="C13:H13" si="0">SUM(C10:C12)</f>
+        <f t="shared" ref="C13:I13" si="0">SUM(C10:C12)</f>
         <v>332017</v>
       </c>
       <c r="D13" s="19">
@@ -895,11 +915,11 @@
         <f t="shared" si="0"/>
         <v>1513230</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="19">
+        <f t="shared" si="0"/>
+        <v>1014926</v>
+      </c>
       <c r="J13" s="18"/>
-      <c r="L13" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
@@ -911,7 +931,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="18"/>
-      <c r="L14" s="2" t="s">
+      <c r="L14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -920,7 +940,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="29">
-        <f t="shared" ref="C15:H15" si="1">C10/C7</f>
+        <f t="shared" ref="C15:I15" si="1">C10/C7</f>
         <v>1.9958611347575517E-3</v>
       </c>
       <c r="D15" s="29">
@@ -943,13 +963,16 @@
         <f t="shared" si="1"/>
         <v>1.6551480268714881E-3</v>
       </c>
-      <c r="I15" s="29"/>
+      <c r="I15" s="29">
+        <f t="shared" si="1"/>
+        <v>1.7102362085732847E-3</v>
+      </c>
       <c r="J15" s="16">
         <f>AVERAGE(C15:H15)</f>
         <v>1.8472624232800704E-3</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>35</v>
+      <c r="L15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -957,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="29">
-        <f t="shared" ref="C16:H16" si="2">C13/C7</f>
+        <f t="shared" ref="C16:I16" si="2">C13/C7</f>
         <v>2.0097897171468719E-3</v>
       </c>
       <c r="D16" s="29">
@@ -980,8 +1003,14 @@
         <f t="shared" si="2"/>
         <v>1.6594731871247344E-3</v>
       </c>
-      <c r="I16" s="29"/>
+      <c r="I16" s="29">
+        <f t="shared" si="2"/>
+        <v>1.7102463191408679E-3</v>
+      </c>
       <c r="J16" s="18"/>
+      <c r="L16" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
@@ -993,9 +1022,6 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="18"/>
-      <c r="L17" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
@@ -1019,8 +1045,13 @@
       <c r="H18" s="15">
         <v>0.25900000000000001</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="15">
+        <v>0.34</v>
+      </c>
       <c r="J18" s="18"/>
+      <c r="L18" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -1050,13 +1081,16 @@
         <f>H12/H7</f>
         <v>4.3251602532463361E-6</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="16">
+        <f>I12/I7</f>
+        <v>1.0110567583099859E-8</v>
+      </c>
       <c r="J19" s="16">
         <f>AVERAGE(C19:H19)</f>
         <v>1.0245593899844477E-5</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -1080,18 +1114,20 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="L21" s="5"/>
+      <c r="L21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" s="26">
         <f>J15+J19</f>
         <v>1.8575080171799149E-3</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -1100,18 +1136,20 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="17">
         <f>TrackingDifference!M4/100</f>
         <v>2.9142857142857139E-3</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -1120,11 +1158,13 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="17">
         <f>C23-C22</f>
@@ -1138,7 +1178,6 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C25" s="17"/>
@@ -1150,32 +1189,29 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
+      <c r="L25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="27">
-        <f>H6+J19</f>
-        <v>1.6102455938998446E-3</v>
+        <f>0.19%+0.0125%</f>
+        <v>2.0249999999999999E-3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K26" s="4"/>
+      <c r="L26" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="28">
-        <f>C26+C24</f>
-        <v>2.6670232910056433E-3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="28"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="3"/>
@@ -1375,7 +1411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A234B298-123C-4CF1-A31A-B1A0DEE615DD}">
   <dimension ref="B1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1413,7 +1451,7 @@
         <v>2020</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
@@ -1453,7 +1491,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="22">
         <v>14.24</v>
@@ -1488,7 +1526,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="22">
         <f>C3-C2</f>
@@ -1532,7 +1570,7 @@
         <v>0.29142857142857137</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/VanEck/VanEck-KostenBepaling.xlsx
+++ b/VanEck/VanEck-KostenBepaling.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/VanEck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{F2C7825C-7BCF-4FD5-BFFB-5E0393C98FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE015A9-A38F-49A0-9841-BCE5E9AEBC5B}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{F2C7825C-7BCF-4FD5-BFFB-5E0393C98FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE513CA0-8316-4427-9E8E-C291B019EC36}"/>
   <bookViews>
-    <workbookView xWindow="30945" yWindow="5310" windowWidth="17220" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="23730" windowHeight="18360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGET" sheetId="1" r:id="rId1"/>
-    <sheet name="TrackingDifference" sheetId="2" r:id="rId2"/>
+    <sheet name="TSWE" sheetId="3" r:id="rId2"/>
+    <sheet name="TrackingDifference" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Gemiddelde</t>
   </si>
@@ -194,6 +195,21 @@
   </si>
   <si>
     <t>Tracking diff check:</t>
+  </si>
+  <si>
+    <t>VanEck Sustainable World Equal Weight UCITS ETF</t>
+  </si>
+  <si>
+    <t>TTMTTSWE (Index)</t>
+  </si>
+  <si>
+    <t>2017-2021</t>
+  </si>
+  <si>
+    <t>Transactiekosten %</t>
+  </si>
+  <si>
+    <t>TSWE</t>
   </si>
 </sst>
 </file>
@@ -616,7 +632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1408,12 +1426,515 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF59273A-D7B9-4067-BE95-75A579242AC6}">
+  <dimension ref="B2:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="91.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="J3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2021</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H5" s="20">
+        <f>AVERAGE(C5:G5)</f>
+        <v>2.9000000000000002E-3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13">
+        <v>123318214</v>
+      </c>
+      <c r="D6" s="13">
+        <v>146381594</v>
+      </c>
+      <c r="E6" s="13">
+        <v>227976641</v>
+      </c>
+      <c r="F6" s="13">
+        <v>154557591</v>
+      </c>
+      <c r="G6" s="13">
+        <v>210691704</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="17"/>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3888</v>
+      </c>
+      <c r="D8" s="19">
+        <v>6650</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3915</v>
+      </c>
+      <c r="F8" s="19">
+        <v>4447</v>
+      </c>
+      <c r="G8" s="19">
+        <v>675</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="16">
+        <f>C10/C6</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" ref="D9:G9" si="0">D10/D6</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <f>AVERAGE(C9:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="18"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="26">
+        <f>H9+H5</f>
+        <v>2.9000000000000002E-3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="17">
+        <f>TrackingDifference!M9/100</f>
+        <v>4.4000000000000037E-3</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="17">
+        <f>C13-C12</f>
+        <v>1.5000000000000035E-3</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="16"/>
+      <c r="J14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="17"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="18"/>
+      <c r="J15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="18"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="17"/>
+      <c r="J19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="4"/>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="28"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A234B298-123C-4CF1-A31A-B1A0DEE615DD}">
-  <dimension ref="B1:N4"/>
+  <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1450,6 +1971,9 @@
       <c r="K1" s="24">
         <v>2020</v>
       </c>
+      <c r="L1" s="24">
+        <v>2021</v>
+      </c>
       <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,6 +2095,78 @@
       </c>
       <c r="N4" s="25" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>8.64</v>
+      </c>
+      <c r="I7">
+        <v>-5.2</v>
+      </c>
+      <c r="J7">
+        <v>27.16</v>
+      </c>
+      <c r="K7">
+        <v>5.93</v>
+      </c>
+      <c r="L7">
+        <v>27.82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8">
+        <v>8.98</v>
+      </c>
+      <c r="I8">
+        <v>-4.91</v>
+      </c>
+      <c r="J8">
+        <v>27.64</v>
+      </c>
+      <c r="K8">
+        <v>6.4</v>
+      </c>
+      <c r="L8">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <f>H8-H7</f>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:L9" si="1">I8-I7</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.48000000000000043</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000064</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.62000000000000099</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGE(H9:L9)</f>
+        <v>0.44000000000000039</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/VanEck/VanEck-KostenBepaling.xlsx
+++ b/VanEck/VanEck-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/VanEck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{F2C7825C-7BCF-4FD5-BFFB-5E0393C98FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE513CA0-8316-4427-9E8E-C291B019EC36}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{F2C7825C-7BCF-4FD5-BFFB-5E0393C98FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D089FCC0-174A-438C-B41B-0F8234AB5D16}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="23730" windowHeight="18360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGET" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Gemiddelde</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>TSWE</t>
+  </si>
+  <si>
+    <t>2017-2022</t>
   </si>
 </sst>
 </file>
@@ -315,28 +318,23 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -344,10 +342,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
@@ -648,344 +645,333 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <v>2014</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="1">
         <v>2015</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="1">
         <v>2016</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="1">
         <v>2017</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="1">
         <v>2018</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="1">
         <v>2019</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="1">
         <v>2020</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>228333302</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>375790127</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <v>522405425</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <v>629269566</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="9">
         <v>789253895</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="9">
         <v>1001210520</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="9">
         <v>252600669</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="1"/>
       <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>2E-3</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>2E-3</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>2E-3</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="10">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="3">
         <f>AVERAGE(C6:I6)</f>
         <v>1.8000000000000002E-3</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <v>165199870</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <v>305587061</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="9">
         <v>431862470</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <v>573972439</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="9">
         <v>727656330</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>911873727</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>593438494</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="L7" s="2" t="s">
+      <c r="J7" s="13"/>
+      <c r="L7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="17"/>
-      <c r="L8" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="13"/>
+      <c r="L8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="17"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="8">
         <v>329716</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>610492</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="9">
         <v>862513</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <v>1001697</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>1231488</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="9">
         <v>1509286</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>1014920</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="L10" s="2" t="s">
+      <c r="J10" s="14"/>
+      <c r="L10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="15">
         <v>2301</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>2754</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="15">
         <v>2407</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="18"/>
-      <c r="L11" s="2" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="L11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <v>0</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <v>0</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15">
         <v>8212</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="15">
         <v>10425</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="15">
         <v>3944</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="15">
         <v>6</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="L12" s="2" t="s">
+      <c r="J12" s="14"/>
+      <c r="L12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <f t="shared" ref="C13:I13" si="0">SUM(C10:C12)</f>
         <v>332017</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
         <v>613246</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="15">
         <f t="shared" si="0"/>
         <v>864920</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="15">
         <f t="shared" si="0"/>
         <v>1009909</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="15">
         <f t="shared" si="0"/>
         <v>1241913</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="15">
         <f t="shared" si="0"/>
         <v>1513230</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="15">
         <f t="shared" si="0"/>
         <v>1014926</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="18"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="14"/>
       <c r="L14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="22">
         <f t="shared" ref="C15:I15" si="1">C10/C7</f>
         <v>1.9958611347575517E-3</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="22">
         <f t="shared" si="1"/>
         <v>1.9977678308833896E-3</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="22">
         <f t="shared" si="1"/>
         <v>1.9971936899263322E-3</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="22">
         <f t="shared" si="1"/>
         <v>1.7452005217274901E-3</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="22">
         <f t="shared" si="1"/>
         <v>1.6924033355141706E-3</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="22">
         <f t="shared" si="1"/>
         <v>1.6551480268714881E-3</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="22">
         <f t="shared" si="1"/>
         <v>1.7102362085732847E-3</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="12">
         <f>AVERAGE(C15:H15)</f>
         <v>1.8472624232800704E-3</v>
       </c>
@@ -994,144 +980,133 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="22">
         <f t="shared" ref="C16:I16" si="2">C13/C7</f>
         <v>2.0097897171468719E-3</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="22">
         <f t="shared" si="2"/>
         <v>2.0067799925599598E-3</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="22">
         <f t="shared" si="2"/>
         <v>2.0027672235561475E-3</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="22">
         <f t="shared" si="2"/>
         <v>1.7595078289116249E-3</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="22">
         <f t="shared" si="2"/>
         <v>1.7067301537801506E-3</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="22">
         <f t="shared" si="2"/>
         <v>1.6594731871247344E-3</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="22">
         <f t="shared" si="2"/>
         <v>1.7102463191408679E-3</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="L16" s="2" t="s">
+      <c r="J16" s="14"/>
+      <c r="L16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="18"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="11">
         <v>0.29199999999999998</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="11">
         <v>0.40400000000000003</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>0.308</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="11">
         <v>0.20499999999999999</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="11">
         <v>0.25900000000000001</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="11">
         <v>0.25900000000000001</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="11">
         <v>0.34</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="L18" s="2" t="s">
+      <c r="J18" s="14"/>
+      <c r="L18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="12">
         <f>C11/C7</f>
         <v>1.3928582389320283E-5</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="12">
         <f>D11/D7</f>
         <v>9.0121616765704616E-6</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="12">
         <f>E11/E7</f>
         <v>5.5735336298150659E-6</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="12">
         <f>F12/F7</f>
         <v>1.4307307184134673E-5</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="12">
         <f>G12/G7</f>
         <v>1.432681826598004E-5</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="12">
         <f>H12/H7</f>
         <v>4.3251602532463361E-6</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="12">
         <f>I12/I7</f>
         <v>1.0110567583099859E-8</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="12">
         <f>AVERAGE(C19:H19)</f>
         <v>1.0245593899844477E-5</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="17"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
       <c r="L21" t="s">
         <v>41</v>
       </c>
@@ -1140,21 +1115,15 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="13">
         <f>J15+J19</f>
         <v>1.8575080171799149E-3</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="2" t="s">
+      <c r="K22" s="3"/>
+      <c r="L22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1162,21 +1131,15 @@
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="17">
-        <f>TrackingDifference!M4/100</f>
+      <c r="C23" s="13">
+        <f>TrackingDifference!N4/100</f>
         <v>2.9142857142857139E-3</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="2" t="s">
+      <c r="K23" s="3"/>
+      <c r="L23" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1184,29 +1147,15 @@
       <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="13">
         <f>C23-C22</f>
         <v>1.0567776971057989E-3</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="17"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="4"/>
+      <c r="C25" s="13"/>
+      <c r="K25" s="3"/>
       <c r="L25" t="s">
         <v>39</v>
       </c>
@@ -1215,208 +1164,208 @@
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="21">
         <f>0.19%+0.0125%</f>
         <v>2.0249999999999999E-3</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="2" t="s">
+      <c r="K26" s="3"/>
+      <c r="L26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="28"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="4"/>
+      <c r="C27" s="21"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="4"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="4"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="4"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="4"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="4"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="4"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="4"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="4"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="4"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="4"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="4"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="4"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="4"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1427,503 +1376,537 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF59273A-D7B9-4067-BE95-75A579242AC6}">
-  <dimension ref="B2:J41"/>
+  <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="91.85546875" customWidth="1"/>
+    <col min="5" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="91.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="1" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="J3" s="5" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
         <v>2017</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="1">
         <v>2018</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="1">
         <v>2019</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="1">
         <v>2020</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="1">
         <v>2021</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H5" s="20">
-        <f>AVERAGE(C5:G5)</f>
-        <v>2.9000000000000002E-3</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <f>AVERAGE(C5:H5)</f>
+        <v>2.7500000000000003E-3</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>123318214</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>146381594</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <v>227976641</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <v>154557591</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <v>210691704</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="J6" s="2" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="13"/>
+      <c r="L6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="17"/>
-      <c r="J7" s="2" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="13"/>
+      <c r="L7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>3888</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>6650</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>3915</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="15">
         <v>4447</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="15">
         <v>675</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="J8" s="2" t="s">
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="13"/>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <f>C10/C6</f>
         <v>0</v>
       </c>
-      <c r="D9" s="16">
-        <f t="shared" ref="D9:G9" si="0">D10/D6</f>
+      <c r="D9" s="12">
+        <f t="shared" ref="D9:H9" si="0">D10/D6</f>
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="20">
-        <f>AVERAGE(C9:G9)</f>
+      <c r="H9" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18"/>
-      <c r="J10" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="3">
+        <f>AVERAGE(C9:H9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H11" s="18"/>
-      <c r="J11" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="14"/>
+      <c r="L11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="26">
-        <f>H9+H5</f>
-        <v>2.9000000000000002E-3</v>
+      <c r="C12" s="13">
+        <f>J9+J5</f>
+        <v>2.7500000000000003E-3</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17">
-        <f>TrackingDifference!M9/100</f>
-        <v>4.4000000000000037E-3</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="13">
+        <f>TrackingDifference!N9/100</f>
+        <v>3.9833333333333361E-3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <f>C13-C12</f>
-        <v>1.5000000000000035E-3</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="16"/>
-      <c r="J14" s="2" t="s">
+        <v>1.2333333333333358E-3</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="12"/>
+      <c r="L14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="17"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="18"/>
-      <c r="J15" s="2" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="13"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="14"/>
+      <c r="L15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="18"/>
-      <c r="J17" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="14"/>
+      <c r="L17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J18" s="2" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="17"/>
-      <c r="J19" s="2" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="13"/>
+      <c r="L19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="4"/>
-      <c r="J21" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="3"/>
+      <c r="L21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="2" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="3"/>
+      <c r="L22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="28"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="21"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1932,173 +1915,181 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A234B298-123C-4CF1-A31A-B1A0DEE615DD}">
-  <dimension ref="B1:N9"/>
+  <dimension ref="B1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="24">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C1" s="19">
         <v>2012</v>
       </c>
-      <c r="D1" s="24">
+      <c r="D1" s="19">
         <v>2013</v>
       </c>
-      <c r="E1" s="24">
+      <c r="E1" s="19">
         <v>2014</v>
       </c>
-      <c r="F1" s="24">
+      <c r="F1" s="19">
         <v>2015</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="19">
         <v>2016</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H1" s="19">
         <v>2017</v>
       </c>
-      <c r="I1" s="24">
+      <c r="I1" s="19">
         <v>2018</v>
       </c>
-      <c r="J1" s="24">
+      <c r="J1" s="19">
         <v>2019</v>
       </c>
-      <c r="K1" s="24">
+      <c r="K1" s="19">
         <v>2020</v>
       </c>
-      <c r="L1" s="24">
+      <c r="L1" s="19">
         <v>2021</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="19">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="17">
         <v>13.59</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="17">
         <v>23.08</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="17">
         <v>13.85</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="17">
         <v>11.09</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="17">
         <v>8.34</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="17">
         <v>7.28</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="17">
         <v>-5.22</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="17">
         <v>27.96</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="17">
         <v>2.64</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="17">
         <v>14.24</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="17">
         <v>23.62</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="17">
         <v>14.27</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="17">
         <v>11.51</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="17">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="17">
         <v>7.51</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="17">
         <v>-5.13</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="17">
         <v>28.23</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="17">
         <v>2.79</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="17">
         <f>C3-C2</f>
         <v>0.65000000000000036</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="17">
         <f t="shared" ref="D4:K4" si="0">D3-D2</f>
         <v>0.5400000000000027</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="17">
         <f t="shared" si="0"/>
         <v>0.41999999999999993</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="17">
         <f t="shared" si="0"/>
         <v>0.41999999999999993</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="17">
         <f t="shared" si="0"/>
         <v>0.46000000000000085</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="17">
         <f t="shared" si="0"/>
         <v>0.22999999999999954</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="17">
         <f t="shared" si="0"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="17">
         <f t="shared" si="0"/>
         <v>0.26999999999999957</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="17">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="23">
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18">
         <f>AVERAGE(E4:K4)</f>
         <v>0.29142857142857137</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="O4" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H7">
@@ -2116,9 +2107,12 @@
       <c r="L7">
         <v>27.82</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="M7">
+        <v>-12.37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H8">
@@ -2136,9 +2130,12 @@
       <c r="L8">
         <v>28.44</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="M8">
+        <v>-12.18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H9">
@@ -2146,7 +2143,7 @@
         <v>0.33999999999999986</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:L9" si="1">I8-I7</f>
+        <f t="shared" ref="I9:M9" si="1">I8-I7</f>
         <v>0.29000000000000004</v>
       </c>
       <c r="J9">
@@ -2162,10 +2159,14 @@
         <v>0.62000000000000099</v>
       </c>
       <c r="M9">
-        <f>AVERAGE(H9:L9)</f>
-        <v>0.44000000000000039</v>
-      </c>
-      <c r="N9" s="5" t="s">
+        <f t="shared" si="1"/>
+        <v>0.1899999999999995</v>
+      </c>
+      <c r="N9" s="23">
+        <f>AVERAGE(H9:M9)</f>
+        <v>0.39833333333333359</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
